--- a/eDNA 12S metab/example_output/taxonomic_assignments/CommonNames_required_edited.xlsx
+++ b/eDNA 12S metab/example_output/taxonomic_assignments/CommonNames_required_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BoxDrive\Box\Science\Fisheries\github\resources\docs\eDNA 12S metab\example_output\taxonomic_assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A50F162-FD82-4BB9-8B35-82AE98B4D9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3D67D4-51E9-4033-BEA1-C39A52703B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Species_name</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Kinosternidae</t>
+  </si>
+  <si>
+    <t>PhylogenySorting</t>
+  </si>
+  <si>
+    <t>T45</t>
   </si>
 </sst>
 </file>
@@ -480,19 +486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +531,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -556,7 +567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -588,7 +599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -616,8 +627,11 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
